--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="480" windowWidth="27400" windowHeight="19640" tabRatio="500"/>
+    <workbookView xWindow="5740" yWindow="460" windowWidth="28100" windowHeight="19660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -150,21 +150,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -394,6 +394,9 @@
                 <c:pt idx="0">
                   <c:v>72.0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -409,11 +412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2031381344"/>
-        <c:axId val="-2020476608"/>
+        <c:axId val="2090805376"/>
+        <c:axId val="-2132074400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2031381344"/>
+        <c:axId val="2090805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020476608"/>
+        <c:crossAx val="-2132074400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -464,7 +467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020476608"/>
+        <c:axId val="-2132074400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031381344"/>
+        <c:crossAx val="2090805376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -715,6 +718,9 @@
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -803,6 +809,9 @@
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -892,7 +901,7 @@
                   <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -957,11 +966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2035262272"/>
-        <c:axId val="-2011569488"/>
+        <c:axId val="2064572592"/>
+        <c:axId val="2091630592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2035262272"/>
+        <c:axId val="2064572592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011569488"/>
+        <c:crossAx val="2091630592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011569488"/>
+        <c:axId val="2091630592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1072,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035262272"/>
+        <c:crossAx val="2064572592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2529,7 +2538,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2598,9 +2607,22 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="2">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2+D3</f>
+        <v>75</v>
+      </c>
+      <c r="F3" s="2">
+        <v>101</v>
+      </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G19" si="0">F3-E3</f>
-        <v>0</v>
+        <f>F3-E3</f>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G19" si="0">F4-E4</f>
         <v>0</v>
       </c>
     </row>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="460" windowWidth="28100" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29060" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -150,21 +150,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -343,7 +343,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$30</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -387,15 +387,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$30</c:f>
+              <c:f>工作表1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,11 +415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090805376"/>
-        <c:axId val="-2132074400"/>
+        <c:axId val="-2089229776"/>
+        <c:axId val="-2090831136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090805376"/>
+        <c:axId val="-2089229776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132074400"/>
+        <c:crossAx val="-2090831136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132074400"/>
+        <c:axId val="-2090831136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090805376"/>
+        <c:crossAx val="-2089229776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,7 +670,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$30</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -711,15 +714,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$30</c:f>
+              <c:f>工作表1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +764,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$30</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -802,15 +808,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$30</c:f>
+              <c:f>工作表1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0</c:v>
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +858,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$30</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -893,63 +902,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$30</c:f>
+              <c:f>工作表1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,11 +930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2064572592"/>
-        <c:axId val="2091630592"/>
+        <c:axId val="-2090705456"/>
+        <c:axId val="-2092192832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2064572592"/>
+        <c:axId val="-2090705456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091630592"/>
+        <c:crossAx val="-2092192832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091630592"/>
+        <c:axId val="-2092192832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1036,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064572592"/>
+        <c:crossAx val="-2090705456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2590,14 +2554,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2">
         <v>72</v>
       </c>
       <c r="G2" s="2">
         <f>F2-E2</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,18 +2575,18 @@
         <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <f>E2+D3</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2">
         <v>101</v>
       </c>
       <c r="G3" s="2">
         <f>F3-E3</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,9 +2596,21 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2">
+        <v>134</v>
+      </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G3:G19" si="0">F4-E4</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G19" si="0">F4-E4</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,10 +2620,6 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2656,10 +2628,6 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2668,10 +2636,6 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2680,10 +2644,6 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2692,10 +2652,6 @@
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2704,72 +2660,20 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29060" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="33420" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -341,6 +341,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
@@ -399,6 +458,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,11 +477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2089229776"/>
-        <c:axId val="-2090831136"/>
+        <c:axId val="2138627760"/>
+        <c:axId val="2137392512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089229776"/>
+        <c:axId val="2138627760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090831136"/>
+        <c:crossAx val="2137392512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -470,7 +532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090831136"/>
+        <c:axId val="2137392512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089229776"/>
+        <c:crossAx val="2138627760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -533,6 +595,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -585,6 +679,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>Bug</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>变更状况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -613,7 +742,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -668,6 +797,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
@@ -726,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,6 +953,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
@@ -820,6 +1070,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,6 +1109,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
@@ -915,14 +1227,18 @@
                 <c:pt idx="2">
                   <c:v>10.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -930,11 +1246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2090705456"/>
-        <c:axId val="-2092192832"/>
+        <c:axId val="2119272176"/>
+        <c:axId val="-2140115136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090705456"/>
+        <c:axId val="2119272176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092192832"/>
+        <c:crossAx val="-2140115136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +1301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092192832"/>
+        <c:axId val="-2140115136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090705456"/>
+        <c:crossAx val="2119272176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,6 +1364,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2233,6 +2581,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16827500" y="2527300"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2502,7 +2899,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2609,7 +3006,7 @@
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G19" si="0">F4-E4</f>
+        <f t="shared" ref="G4:G5" si="0">F4-E4</f>
         <v>10</v>
       </c>
     </row>
@@ -2619,6 +3016,22 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2">
+        <v>180</v>
+      </c>
+      <c r="F5" s="2">
+        <v>186</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="33420" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="21440" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -150,21 +150,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -462,6 +462,9 @@
                 <c:pt idx="3">
                   <c:v>186.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -477,11 +480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138627760"/>
-        <c:axId val="2137392512"/>
+        <c:axId val="-2078639408"/>
+        <c:axId val="-2059134800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138627760"/>
+        <c:axId val="-2078639408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137392512"/>
+        <c:crossAx val="-2059134800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137392512"/>
+        <c:axId val="-2059134800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138627760"/>
+        <c:crossAx val="-2078639408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,7 +919,10 @@
                   <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.0</c:v>
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,6 +1080,9 @@
                 <c:pt idx="3">
                   <c:v>56.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1230,6 +1239,9 @@
                 <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1246,11 +1258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119272176"/>
-        <c:axId val="-2140115136"/>
+        <c:axId val="-2059400432"/>
+        <c:axId val="2125251344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119272176"/>
+        <c:axId val="-2059400432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140115136"/>
+        <c:crossAx val="2125251344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140115136"/>
+        <c:axId val="2125251344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119272176"/>
+        <c:crossAx val="-2059400432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2899,7 +2911,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3018,7 @@
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G5" si="0">F4-E4</f>
+        <f t="shared" ref="G4:G6" si="0">F4-E4</f>
         <v>10</v>
       </c>
     </row>
@@ -3018,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>56</v>
@@ -3040,6 +3052,22 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>180</v>
+      </c>
+      <c r="F6" s="2">
+        <v>191</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="21440" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="29240" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -465,6 +465,9 @@
                 <c:pt idx="4">
                   <c:v>191.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -480,11 +483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078639408"/>
-        <c:axId val="-2059134800"/>
+        <c:axId val="-2074302416"/>
+        <c:axId val="-2072714192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078639408"/>
+        <c:axId val="-2074302416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059134800"/>
+        <c:crossAx val="-2072714192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2059134800"/>
+        <c:axId val="-2072714192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078639408"/>
+        <c:crossAx val="-2074302416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,7 +673,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -924,6 +927,9 @@
                 <c:pt idx="4">
                   <c:v>7.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1083,6 +1089,9 @@
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1242,6 +1251,9 @@
                 <c:pt idx="4">
                   <c:v>11.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1258,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2059400432"/>
-        <c:axId val="2125251344"/>
+        <c:axId val="2131667872"/>
+        <c:axId val="-2111131824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059400432"/>
+        <c:axId val="2131667872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125251344"/>
+        <c:crossAx val="-2111131824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125251344"/>
+        <c:axId val="-2111131824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059400432"/>
+        <c:crossAx val="2131667872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2911,10 +2923,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -2949,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3018,11 +3030,11 @@
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G6" si="0">F4-E4</f>
+        <f t="shared" ref="G4:G7" si="0">F4-E4</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3070,15 +3082,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>184</v>
+      </c>
+      <c r="F7" s="2">
+        <v>196</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3102,17 +3130,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -468,6 +468,9 @@
                 <c:pt idx="5">
                   <c:v>196.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>226.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -483,11 +486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074302416"/>
-        <c:axId val="-2072714192"/>
+        <c:axId val="-2141946032"/>
+        <c:axId val="2105980576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074302416"/>
+        <c:axId val="-2141946032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072714192"/>
+        <c:crossAx val="2105980576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072714192"/>
+        <c:axId val="2105980576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +592,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074302416"/>
+        <c:crossAx val="-2141946032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -930,6 +933,9 @@
                 <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1092,6 +1098,9 @@
                 <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1254,6 +1263,9 @@
                 <c:pt idx="5">
                   <c:v>12.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1270,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131667872"/>
-        <c:axId val="-2111131824"/>
+        <c:axId val="2096230624"/>
+        <c:axId val="-2140005264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131667872"/>
+        <c:axId val="2096230624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111131824"/>
+        <c:crossAx val="-2140005264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1325,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111131824"/>
+        <c:axId val="-2140005264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131667872"/>
+        <c:crossAx val="2096230624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2923,10 +2935,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -2961,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3030,11 +3042,11 @@
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G7" si="0">F4-E4</f>
+        <f t="shared" ref="G4:G8" si="0">F4-E4</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3106,15 +3118,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>184</v>
+      </c>
+      <c r="F8" s="2">
+        <v>226</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3122,7 +3150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3130,17 +3158,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="29240" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="15940" yWindow="460" windowWidth="17900" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -471,6 +471,9 @@
                 <c:pt idx="6">
                   <c:v>226.0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -486,11 +489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141946032"/>
-        <c:axId val="2105980576"/>
+        <c:axId val="-2127929104"/>
+        <c:axId val="-2127601056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141946032"/>
+        <c:axId val="-2127929104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105980576"/>
+        <c:crossAx val="-2127601056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -541,7 +544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105980576"/>
+        <c:axId val="-2127601056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141946032"/>
+        <c:crossAx val="-2127929104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,6 +939,9 @@
                 <c:pt idx="6">
                   <c:v>30.0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1087,7 +1093,7 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.0</c:v>
@@ -1100,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,19 +1261,22 @@
                   <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.0</c:v>
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096230624"/>
-        <c:axId val="-2140005264"/>
+        <c:axId val="2142600320"/>
+        <c:axId val="-2127876560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096230624"/>
+        <c:axId val="2142600320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140005264"/>
+        <c:crossAx val="-2127876560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140005264"/>
+        <c:axId val="-2127876560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096230624"/>
+        <c:crossAx val="2142600320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,10 +2947,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -2973,7 +2985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3033,20 +3045,20 @@
         <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="2">
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G8" si="0">F4-E4</f>
-        <v>10</v>
+        <f t="shared" ref="G4:G9" si="0">F4-E4</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3060,17 +3072,17 @@
         <v>56</v>
       </c>
       <c r="E5" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="2">
         <v>186</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3084,17 +3096,17 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="2">
         <v>191</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3108,17 +3120,17 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="2">
         <v>196</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3132,25 +3144,41 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2">
         <v>226</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="2">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>248</v>
+      </c>
+      <c r="F9" s="2">
+        <v>269</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3158,17 +3186,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="460" windowWidth="17900" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="12980" yWindow="520" windowWidth="17900" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -124,6 +124,41 @@
   </si>
   <si>
     <t>Sprint23</t>
+  </si>
+  <si>
+    <t>2015年08月05日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月19日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint24</t>
+  </si>
+  <si>
+    <t>Sprint25</t>
+  </si>
+  <si>
+    <t>Sprint26</t>
+  </si>
+  <si>
+    <t>Sprint27</t>
+  </si>
+  <si>
+    <t>Sprint28</t>
+  </si>
+  <si>
+    <t>2015年08月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,7 +439,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -440,6 +475,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sprint23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sprint24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sprint26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sprint27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sprint28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,6 +523,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,11 +542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127929104"/>
-        <c:axId val="-2127601056"/>
+        <c:axId val="-2081226816"/>
+        <c:axId val="2124278144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127929104"/>
+        <c:axId val="-2081226816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127601056"/>
+        <c:crossAx val="2124278144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127601056"/>
+        <c:axId val="2124278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127929104"/>
+        <c:crossAx val="-2081226816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -872,7 +925,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -908,6 +961,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sprint23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sprint24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sprint26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sprint27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sprint28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,6 +1009,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1111,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1076,6 +1147,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sprint23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sprint24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sprint26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sprint27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sprint28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1093,7 +1179,7 @@
                   <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.0</c:v>
@@ -1109,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1297,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1244,6 +1333,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sprint23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sprint24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sprint26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sprint27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sprint28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1261,22 +1365,25 @@
                   <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.0</c:v>
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,11 +1401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142600320"/>
-        <c:axId val="-2127876560"/>
+        <c:axId val="2138305552"/>
+        <c:axId val="-2083238384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142600320"/>
+        <c:axId val="2138305552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1448,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127876560"/>
+        <c:crossAx val="-2083238384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127876560"/>
+        <c:axId val="-2083238384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142600320"/>
+        <c:crossAx val="2138305552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,17 +3152,17 @@
         <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2">
         <v>134</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G9" si="0">F4-E4</f>
-        <v>11</v>
+        <f t="shared" ref="G4:G10" si="0">F4-E4</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,14 +3179,14 @@
         <v>56</v>
       </c>
       <c r="E5" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2">
         <v>186</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3096,14 +3203,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="2">
         <v>191</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,14 +3227,14 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="2">
         <v>196</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3144,14 +3251,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2">
         <v>226</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3168,14 +3275,14 @@
         <v>65</v>
       </c>
       <c r="E9" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="2">
         <v>269</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3185,20 +3292,76 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="2">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <v>286</v>
+      </c>
+      <c r="F10" s="2">
+        <v>310</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10-E10</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="520" windowWidth="17900" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="30700" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,20 +188,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -218,6 +204,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,19 +261,19 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -527,6 +534,9 @@
                 <c:pt idx="8">
                   <c:v>310.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>327.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -542,11 +552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2081226816"/>
-        <c:axId val="2124278144"/>
+        <c:axId val="-2016582848"/>
+        <c:axId val="-2061327600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2081226816"/>
+        <c:axId val="-2016582848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124278144"/>
+        <c:crossAx val="-2061327600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124278144"/>
+        <c:axId val="-2061327600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +658,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081226816"/>
+        <c:crossAx val="-2016582848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,6 +1023,9 @@
                 <c:pt idx="8">
                   <c:v>31.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1199,6 +1212,9 @@
                 <c:pt idx="8">
                   <c:v>39.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1385,6 +1401,9 @@
                 <c:pt idx="8">
                   <c:v>24.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1401,11 +1420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138305552"/>
-        <c:axId val="-2083238384"/>
+        <c:axId val="-2129280528"/>
+        <c:axId val="-2129425120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138305552"/>
+        <c:axId val="-2129280528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083238384"/>
+        <c:crossAx val="-2129425120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083238384"/>
+        <c:axId val="-2129425120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138305552"/>
+        <c:crossAx val="-2129280528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,7 +2762,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:ext cx="184731" cy="278538"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
@@ -2751,8 +2770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16827500" y="2527300"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="16891000" y="2314331"/>
+          <a:ext cx="184731" cy="278538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2779,7 +2798,11 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" charset="0"/>
+            <a:ea typeface="微软雅黑" charset="0"/>
+            <a:cs typeface="微软雅黑" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3053,314 +3076,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>45</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>72</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <f>F2-E2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f>E2+D3</f>
         <v>70</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>101</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <f>F3-E3</f>
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>33</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>52</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>122</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>134</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G10" si="0">F4-E4</f>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G9" si="0">F4-E4</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>56</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>178</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>186</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>178</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>191</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>182</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>182</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>226</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>43</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>65</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>247</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>269</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>31</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>286</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>310</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <f>F10-E10</f>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C11" s="4">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4">
+        <v>307</v>
+      </c>
+      <c r="F11" s="4">
+        <v>327</v>
+      </c>
+      <c r="G11" s="4">
+        <f>F11-E11</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -537,6 +537,9 @@
                 <c:pt idx="9">
                   <c:v>327.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>349.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -552,11 +555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2016582848"/>
-        <c:axId val="-2061327600"/>
+        <c:axId val="-2060366304"/>
+        <c:axId val="-2060362896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2016582848"/>
+        <c:axId val="-2060366304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061327600"/>
+        <c:crossAx val="-2060362896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061327600"/>
+        <c:axId val="-2060362896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +661,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016582848"/>
+        <c:crossAx val="-2060366304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,6 +1029,9 @@
                 <c:pt idx="9">
                   <c:v>17.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1215,6 +1221,9 @@
                 <c:pt idx="9">
                   <c:v>21.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1404,6 +1413,9 @@
                 <c:pt idx="9">
                   <c:v>20.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1420,11 +1432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129280528"/>
-        <c:axId val="-2129425120"/>
+        <c:axId val="-2084128880"/>
+        <c:axId val="-2084125344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129280528"/>
+        <c:axId val="-2084128880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129425120"/>
+        <c:crossAx val="-2084125344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129425120"/>
+        <c:axId val="-2084125344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129280528"/>
+        <c:crossAx val="-2084128880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3077,7 +3089,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3363,6 +3375,22 @@
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="4">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>307</v>
+      </c>
+      <c r="F12" s="4">
+        <v>349</v>
+      </c>
+      <c r="G12" s="4">
+        <f>F12-E12</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -540,6 +540,9 @@
                 <c:pt idx="10">
                   <c:v>349.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>373.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -555,11 +558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060366304"/>
-        <c:axId val="-2060362896"/>
+        <c:axId val="-2109085456"/>
+        <c:axId val="-2108876240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060366304"/>
+        <c:axId val="-2109085456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060362896"/>
+        <c:crossAx val="-2108876240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -610,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060362896"/>
+        <c:axId val="-2108876240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060366304"/>
+        <c:crossAx val="-2109085456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,6 +1035,9 @@
                 <c:pt idx="10">
                   <c:v>22.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1224,6 +1230,9 @@
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1416,6 +1425,9 @@
                 <c:pt idx="10">
                   <c:v>42.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1432,11 +1444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2084128880"/>
-        <c:axId val="-2084125344"/>
+        <c:axId val="-2108956784"/>
+        <c:axId val="-2108953248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084128880"/>
+        <c:axId val="-2108956784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084125344"/>
+        <c:crossAx val="-2108953248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084125344"/>
+        <c:axId val="-2108953248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084128880"/>
+        <c:crossAx val="-2108956784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3089,7 +3101,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3399,6 +3411,22 @@
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="4">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>313</v>
+      </c>
+      <c r="F13" s="4">
+        <v>373</v>
+      </c>
+      <c r="G13" s="4">
+        <f>F13-E13</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>2015年09月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月09日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月16日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,6 +551,12 @@
                 <c:pt idx="11">
                   <c:v>373.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>595.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -558,11 +572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109085456"/>
-        <c:axId val="-2108876240"/>
+        <c:axId val="1813099280"/>
+        <c:axId val="2142299792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109085456"/>
+        <c:axId val="1813099280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108876240"/>
+        <c:crossAx val="2142299792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108876240"/>
+        <c:axId val="2142299792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109085456"/>
+        <c:crossAx val="1813099280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,6 +1052,12 @@
                 <c:pt idx="11">
                   <c:v>24.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1233,6 +1253,12 @@
                 <c:pt idx="11">
                   <c:v>6.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>183.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1428,6 +1454,12 @@
                 <c:pt idx="11">
                   <c:v>60.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1444,11 +1476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108956784"/>
-        <c:axId val="-2108953248"/>
+        <c:axId val="1817440432"/>
+        <c:axId val="-1985334768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108956784"/>
+        <c:axId val="1817440432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108953248"/>
+        <c:crossAx val="-1985334768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108953248"/>
+        <c:axId val="-1985334768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108956784"/>
+        <c:crossAx val="1817440432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,7 +3133,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3435,6 +3467,22 @@
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C14" s="4">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4">
+        <v>360</v>
+      </c>
+      <c r="F14" s="4">
+        <v>416</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14-E14</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3443,18 +3491,39 @@
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C15" s="4">
+        <v>179</v>
+      </c>
+      <c r="D15" s="4">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4">
+        <v>543</v>
+      </c>
+      <c r="F15" s="4">
+        <v>595</v>
+      </c>
+      <c r="G15" s="4">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -167,6 +167,23 @@
   <si>
     <t>2015年09月16日</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint29</t>
+  </si>
+  <si>
+    <t>Sprint30</t>
+  </si>
+  <si>
+    <t>Sprint31</t>
   </si>
 </sst>
 </file>
@@ -454,7 +471,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -505,6 +522,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Sprint28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sprint30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -556,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>655.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,11 +598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1813099280"/>
-        <c:axId val="2142299792"/>
+        <c:axId val="2112160832"/>
+        <c:axId val="2112603840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813099280"/>
+        <c:axId val="2112160832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142299792"/>
+        <c:crossAx val="2112603840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142299792"/>
+        <c:axId val="2112603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813099280"/>
+        <c:crossAx val="2112160832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -955,7 +981,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1006,6 +1032,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Sprint28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sprint30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1057,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1191,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1207,6 +1242,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Sprint28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sprint30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1258,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,7 +1401,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1408,6 +1452,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Sprint28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sprint30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1459,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,11 +1529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1817440432"/>
-        <c:axId val="-1985334768"/>
+        <c:axId val="-2128125872"/>
+        <c:axId val="2114364448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1817440432"/>
+        <c:axId val="-2128125872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985334768"/>
+        <c:crossAx val="2114364448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1531,7 +1584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1985334768"/>
+        <c:axId val="2114364448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817440432"/>
+        <c:crossAx val="-2128125872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3130,10 +3183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3514,6 +3567,21 @@
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C16" s="4">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4">
+        <v>613</v>
+      </c>
+      <c r="F16" s="4">
+        <v>655</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3526,6 +3594,27 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>Sprint31</t>
+  </si>
+  <si>
+    <t>2015年10月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -583,6 +591,15 @@
                 <c:pt idx="14">
                   <c:v>655.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>659.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>714.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>786.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -598,11 +615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112160832"/>
-        <c:axId val="2112603840"/>
+        <c:axId val="2135048848"/>
+        <c:axId val="-2075175120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112160832"/>
+        <c:axId val="2135048848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112603840"/>
+        <c:crossAx val="-2075175120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112603840"/>
+        <c:axId val="-2075175120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +721,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112160832"/>
+        <c:crossAx val="2135048848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,6 +1110,15 @@
                 <c:pt idx="14">
                   <c:v>60.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1303,6 +1329,15 @@
                 <c:pt idx="14">
                   <c:v>77.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1513,6 +1548,15 @@
                 <c:pt idx="14">
                   <c:v>42.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1529,11 +1573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128125872"/>
-        <c:axId val="2114364448"/>
+        <c:axId val="-2079936656"/>
+        <c:axId val="-2120784992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128125872"/>
+        <c:axId val="-2079936656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1620,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114364448"/>
+        <c:crossAx val="-2120784992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1584,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114364448"/>
+        <c:axId val="-2120784992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128125872"/>
+        <c:crossAx val="-2079936656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3186,7 +3230,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3583,38 +3627,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>616</v>
+      </c>
+      <c r="F17" s="4">
+        <v>659</v>
+      </c>
+      <c r="G17" s="4">
+        <f>F17-E17</f>
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C18" s="4">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>622</v>
+      </c>
+      <c r="F18" s="4">
+        <v>714</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" ref="G18:G19" si="1">F18-E18</f>
+        <v>92</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="C19" s="4">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>622</v>
+      </c>
+      <c r="F19" s="4">
+        <v>786</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -191,6 +191,19 @@
   </si>
   <si>
     <t>2015年10月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint32</t>
+  </si>
+  <si>
+    <t>Sprint33</t>
+  </si>
+  <si>
+    <t>Sprint34</t>
+  </si>
+  <si>
+    <t>2015年10月28日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,6 +613,9 @@
                 <c:pt idx="17">
                   <c:v>786.0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>897.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -615,11 +631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135048848"/>
-        <c:axId val="-2075175120"/>
+        <c:axId val="-2034323200"/>
+        <c:axId val="-2037992176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135048848"/>
+        <c:axId val="-2034323200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075175120"/>
+        <c:crossAx val="-2037992176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075175120"/>
+        <c:axId val="-2037992176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135048848"/>
+        <c:crossAx val="-2034323200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,6 +1135,9 @@
                 <c:pt idx="17">
                   <c:v>72.0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>111.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1338,6 +1357,9 @@
                 <c:pt idx="17">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>126.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1557,6 +1579,9 @@
                 <c:pt idx="17">
                   <c:v>164.0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1573,11 +1598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2079936656"/>
-        <c:axId val="-2120784992"/>
+        <c:axId val="-2036869872"/>
+        <c:axId val="-2036866336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2079936656"/>
+        <c:axId val="-2036869872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120784992"/>
+        <c:crossAx val="-2036866336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120784992"/>
+        <c:axId val="-2036866336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079936656"/>
+        <c:crossAx val="-2036869872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3720,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f>F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -3706,6 +3731,22 @@
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C20" s="4">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4">
+        <v>748</v>
+      </c>
+      <c r="F20" s="4">
+        <v>897</v>
+      </c>
+      <c r="G20" s="4">
+        <f>F20-E20</f>
+        <v>149</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3713,6 +3754,24 @@
       </c>
       <c r="B21" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -631,11 +631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2034323200"/>
-        <c:axId val="-2037992176"/>
+        <c:axId val="-2138889248"/>
+        <c:axId val="2119422832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2034323200"/>
+        <c:axId val="-2138889248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037992176"/>
+        <c:crossAx val="2119422832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037992176"/>
+        <c:axId val="2119422832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2034323200"/>
+        <c:crossAx val="-2138889248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1598,11 +1598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036869872"/>
-        <c:axId val="-2036866336"/>
+        <c:axId val="-2131096688"/>
+        <c:axId val="2110890672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036869872"/>
+        <c:axId val="-2131096688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036866336"/>
+        <c:crossAx val="2110890672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036866336"/>
+        <c:axId val="2110890672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036869872"/>
+        <c:crossAx val="-2131096688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3254,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3696,7 @@
         <v>714</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G19" si="1">F18-E18</f>
+        <f t="shared" ref="G18" si="1">F18-E18</f>
         <v>92</v>
       </c>
     </row>
@@ -3754,6 +3754,22 @@
       </c>
       <c r="B21" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="C21" s="4">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4">
+        <v>144</v>
+      </c>
+      <c r="E21" s="4">
+        <v>892</v>
+      </c>
+      <c r="F21" s="4">
+        <v>963</v>
+      </c>
+      <c r="G21" s="4">
+        <f>F21-E21</f>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>2015年10月28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月04日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,11 +635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2138889248"/>
-        <c:axId val="2119422832"/>
+        <c:axId val="-2146902032"/>
+        <c:axId val="-2143791888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138889248"/>
+        <c:axId val="-2146902032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119422832"/>
+        <c:crossAx val="-2143791888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119422832"/>
+        <c:axId val="-2143791888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138889248"/>
+        <c:crossAx val="-2146902032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1598,11 +1602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131096688"/>
-        <c:axId val="2110890672"/>
+        <c:axId val="2146590576"/>
+        <c:axId val="2079036208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131096688"/>
+        <c:axId val="2146590576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110890672"/>
+        <c:crossAx val="2079036208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110890672"/>
+        <c:axId val="2079036208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1708,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131096688"/>
+        <c:crossAx val="2146590576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3254,8 +3258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3779,10 +3784,29 @@
       <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C22" s="4">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4">
+        <v>62</v>
+      </c>
+      <c r="E22" s="4">
+        <v>954</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1023</v>
+      </c>
+      <c r="G22" s="4">
+        <f>F22-E22</f>
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -208,6 +208,16 @@
   </si>
   <si>
     <t>2015年11月04日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint35</t>
+  </si>
+  <si>
+    <t>Sprint36</t>
+  </si>
+  <si>
+    <t>2015年11月11日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,11 +645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146902032"/>
-        <c:axId val="-2143791888"/>
+        <c:axId val="-2069822432"/>
+        <c:axId val="-2069158880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146902032"/>
+        <c:axId val="-2069822432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143791888"/>
+        <c:crossAx val="-2069158880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -690,7 +700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143791888"/>
+        <c:axId val="-2069158880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146902032"/>
+        <c:crossAx val="-2069822432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +1612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146590576"/>
-        <c:axId val="2079036208"/>
+        <c:axId val="-2065096640"/>
+        <c:axId val="-2065093104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146590576"/>
+        <c:axId val="-2065096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079036208"/>
+        <c:crossAx val="-2065093104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1657,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079036208"/>
+        <c:axId val="-2065093104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146590576"/>
+        <c:crossAx val="-2065096640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,11 +3266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3808,10 +3818,39 @@
       <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C23" s="4">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>961</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1058</v>
+      </c>
+      <c r="G23" s="4">
+        <f>F23-E23</f>
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>2015年11月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月25日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,11 +653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2069822432"/>
-        <c:axId val="-2069158880"/>
+        <c:axId val="-2077745440"/>
+        <c:axId val="-2090183696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2069822432"/>
+        <c:axId val="-2077745440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069158880"/>
+        <c:crossAx val="-2090183696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -700,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069158880"/>
+        <c:axId val="-2090183696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069822432"/>
+        <c:crossAx val="-2077745440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,11 +1620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065096640"/>
-        <c:axId val="-2065093104"/>
+        <c:axId val="-2131628096"/>
+        <c:axId val="-2089334000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065096640"/>
+        <c:axId val="-2131628096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065093104"/>
+        <c:crossAx val="-2089334000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065093104"/>
+        <c:axId val="-2089334000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065096640"/>
+        <c:crossAx val="-2131628096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,7 +3278,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3842,15 +3850,37 @@
       <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="C24" s="4">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4">
+        <v>992</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1094</v>
+      </c>
+      <c r="G24" s="4">
+        <f>F24-E24</f>
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -653,11 +653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077745440"/>
-        <c:axId val="-2090183696"/>
+        <c:axId val="-2032339664"/>
+        <c:axId val="-2073081904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077745440"/>
+        <c:axId val="-2032339664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090183696"/>
+        <c:crossAx val="-2073081904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090183696"/>
+        <c:axId val="-2073081904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077745440"/>
+        <c:crossAx val="-2032339664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,11 +1620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131628096"/>
-        <c:axId val="-2089334000"/>
+        <c:axId val="-2131058800"/>
+        <c:axId val="-2060751824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131628096"/>
+        <c:axId val="-2131058800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089334000"/>
+        <c:crossAx val="-2060751824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089334000"/>
+        <c:axId val="-2060751824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131628096"/>
+        <c:crossAx val="-2131058800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3278,7 +3278,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3743,7 +3743,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f>F19-E19</f>
+        <f t="shared" ref="G19:G25" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>897</v>
       </c>
       <c r="G20" s="4">
-        <f>F20-E20</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
         <v>963</v>
       </c>
       <c r="G21" s="4">
-        <f>F21-E21</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
         <v>1023</v>
       </c>
       <c r="G22" s="4">
-        <f>F22-E22</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
         <v>1058</v>
       </c>
       <c r="G23" s="4">
-        <f>F23-E23</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
         <v>1094</v>
       </c>
       <c r="G24" s="4">
-        <f>F24-E24</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
@@ -3873,6 +3873,22 @@
       </c>
       <c r="B25" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="C25" s="4">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1056</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1141</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="30700" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -226,6 +226,20 @@
   </si>
   <si>
     <t>2015年11月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint37</t>
+  </si>
+  <si>
+    <t>Sprint38</t>
+  </si>
+  <si>
+    <t>2015年12月09日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月02日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,37 +388,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -424,9 +407,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>总bug数</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -512,9 +492,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -571,16 +551,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Sprint30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sprint31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sprint33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sprint35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sprint36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sprint37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sprint38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$20</c:f>
+              <c:f>工作表1!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>72.0</c:v>
                 </c:pt>
@@ -637,6 +641,24 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>897.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1058.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1094.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1141.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1190.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,11 +675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2032339664"/>
-        <c:axId val="-2073081904"/>
+        <c:axId val="2145896704"/>
+        <c:axId val="2145860032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2032339664"/>
+        <c:axId val="2145896704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +722,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073081904"/>
+        <c:crossAx val="2145860032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073081904"/>
+        <c:axId val="2145860032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +781,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032339664"/>
+        <c:crossAx val="2145896704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,7 +969,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>流入bug数</c:v>
+            <c:v>流入bug</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1034,9 +1056,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1093,16 +1115,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Sprint30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sprint31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sprint33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sprint35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sprint36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sprint37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sprint38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$20</c:f>
+              <c:f>工作表1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -1159,6 +1205,24 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1233,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>流出bug数</c:v>
+            <c:v>流出bug</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1256,9 +1320,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1315,16 +1379,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Sprint30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sprint31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sprint33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sprint35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sprint36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sprint37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sprint38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$20</c:f>
+              <c:f>工作表1!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -1381,6 +1469,24 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,7 +1497,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>打开bug数</c:v>
+            <c:v>打开bug</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1478,9 +1584,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1537,16 +1643,40 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Sprint30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sprint31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sprint33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sprint35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sprint36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sprint37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sprint38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$20</c:f>
+              <c:f>工作表1!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>27.0</c:v>
                 </c:pt>
@@ -1603,6 +1733,24 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,11 +1768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131058800"/>
-        <c:axId val="-2060751824"/>
+        <c:axId val="-2132916080"/>
+        <c:axId val="2121211648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131058800"/>
+        <c:axId val="-2132916080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060751824"/>
+        <c:crossAx val="2121211648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060751824"/>
+        <c:axId val="2121211648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1874,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131058800"/>
+        <c:crossAx val="-2132916080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1740,7 +1888,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0928906661058363"/>
+          <c:y val="0.0612399099271834"/>
+          <c:w val="0.152170449293228"/>
+          <c:h val="0.088786591155762"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2933,8 +3090,8 @@
       <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>322385</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3274,11 +3431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3743,7 +3900,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G25" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G26" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -3897,6 +4054,38 @@
       </c>
       <c r="B26" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="C26" s="4">
+        <v>49</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1190</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="38820" yWindow="1100" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -660,6 +660,9 @@
                 <c:pt idx="24">
                   <c:v>1190.0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1249.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -675,11 +678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145896704"/>
-        <c:axId val="2145860032"/>
+        <c:axId val="2097127136"/>
+        <c:axId val="2097130496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145896704"/>
+        <c:axId val="2097127136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145860032"/>
+        <c:crossAx val="2097130496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145860032"/>
+        <c:axId val="2097130496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145896704"/>
+        <c:crossAx val="2097127136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,6 +1227,9 @@
                 <c:pt idx="24">
                   <c:v>49.0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>59.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1488,6 +1494,9 @@
                 <c:pt idx="24">
                   <c:v>44.0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1752,6 +1761,9 @@
                 <c:pt idx="24">
                   <c:v>90.0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1768,11 +1780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132916080"/>
-        <c:axId val="2121211648"/>
+        <c:axId val="-2099933200"/>
+        <c:axId val="-2099929680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132916080"/>
+        <c:axId val="-2099933200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121211648"/>
+        <c:crossAx val="-2099929680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1823,7 +1835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121211648"/>
+        <c:axId val="-2099929680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132916080"/>
+        <c:crossAx val="-2099933200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3435,7 +3447,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3900,7 +3912,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G26" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G27" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -4078,6 +4090,22 @@
       </c>
       <c r="B27" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="C27" s="4">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4">
+        <v>49</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1149</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1249</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -663,6 +663,9 @@
                 <c:pt idx="25">
                   <c:v>1249.0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>1286.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -678,11 +681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2097127136"/>
-        <c:axId val="2097130496"/>
+        <c:axId val="2100232160"/>
+        <c:axId val="2116943808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097127136"/>
+        <c:axId val="2100232160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097130496"/>
+        <c:crossAx val="2116943808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097130496"/>
+        <c:axId val="2116943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097127136"/>
+        <c:crossAx val="2100232160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,6 +1233,9 @@
                 <c:pt idx="25">
                   <c:v>59.0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1497,6 +1503,9 @@
                 <c:pt idx="25">
                   <c:v>49.0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1764,6 +1773,9 @@
                 <c:pt idx="25">
                   <c:v>100.0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1780,11 +1792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099933200"/>
-        <c:axId val="-2099929680"/>
+        <c:axId val="-2067358784"/>
+        <c:axId val="2137348176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099933200"/>
+        <c:axId val="-2067358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099929680"/>
+        <c:crossAx val="2137348176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099929680"/>
+        <c:axId val="2137348176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1898,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099933200"/>
+        <c:crossAx val="-2067358784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3446,8 +3458,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3924,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G27" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G28" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -4114,6 +4126,22 @@
       </c>
       <c r="B28" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="C28" s="4">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4">
+        <v>61</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1210</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1286</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -240,6 +240,16 @@
   </si>
   <si>
     <t>2015年12月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint39</t>
+  </si>
+  <si>
+    <t>Sprint40</t>
+  </si>
+  <si>
+    <t>2015年12月16日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,11 +691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100232160"/>
-        <c:axId val="2116943808"/>
+        <c:axId val="-2014011664"/>
+        <c:axId val="-2055417984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100232160"/>
+        <c:axId val="-2014011664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116943808"/>
+        <c:crossAx val="-2055417984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116943808"/>
+        <c:axId val="-2055417984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +797,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100232160"/>
+        <c:crossAx val="-2014011664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,11 +1802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067358784"/>
-        <c:axId val="2137348176"/>
+        <c:axId val="-2055359792"/>
+        <c:axId val="-2019790144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067358784"/>
+        <c:axId val="-2055359792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137348176"/>
+        <c:crossAx val="-2019790144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1847,7 +1857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137348176"/>
+        <c:axId val="-2019790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067358784"/>
+        <c:crossAx val="-2055359792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3455,11 +3465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3934,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G28" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G29" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -4142,6 +4152,35 @@
       <c r="G28" s="4">
         <f t="shared" si="2"/>
         <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1245</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1326</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -250,6 +250,13 @@
   </si>
   <si>
     <t>2015年12月16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint41</t>
+  </si>
+  <si>
+    <t>2015年12月23日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,11 +698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2014011664"/>
-        <c:axId val="-2055417984"/>
+        <c:axId val="-2108899200"/>
+        <c:axId val="-2108868272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2014011664"/>
+        <c:axId val="-2108899200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055417984"/>
+        <c:crossAx val="-2108868272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055417984"/>
+        <c:axId val="-2108868272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,7 +804,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2014011664"/>
+        <c:crossAx val="-2108899200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,11 +1809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055359792"/>
-        <c:axId val="-2019790144"/>
+        <c:axId val="-2065863616"/>
+        <c:axId val="-2065860096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055359792"/>
+        <c:axId val="-2065863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1856,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019790144"/>
+        <c:crossAx val="-2065860096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1857,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019790144"/>
+        <c:axId val="-2065860096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055359792"/>
+        <c:crossAx val="-2065863616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3465,11 +3472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3934,7 +3941,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G29" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G30" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -4162,7 +4169,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4">
         <v>35</v>
@@ -4171,16 +4178,39 @@
         <v>1245</v>
       </c>
       <c r="F29" s="4">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4">
+        <v>180</v>
+      </c>
+      <c r="D30" s="4">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1272</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1518</v>
+      </c>
+      <c r="G30" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="1100" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="540" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -258,6 +258,19 @@
   <si>
     <t>2015年12月23日</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint42</t>
+  </si>
+  <si>
+    <t>Sprint43</t>
+  </si>
+  <si>
+    <t>Sprint44</t>
   </si>
 </sst>
 </file>
@@ -424,6 +437,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>总bug数</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -509,9 +525,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$28</c:f>
+              <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -592,16 +608,34 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Sprint38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sprint39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sprint41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sprint42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sprint43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sprint44</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$28</c:f>
+              <c:f>工作表1!$F$2:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>72.0</c:v>
                 </c:pt>
@@ -682,6 +716,146 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1338.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1518.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>打开bug数</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108899200"/>
-        <c:axId val="-2108868272"/>
+        <c:axId val="-2086123040"/>
+        <c:axId val="-2101406912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108899200"/>
+        <c:axId val="-2086123040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +919,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108868272"/>
+        <c:crossAx val="-2101406912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108868272"/>
+        <c:axId val="-2101406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108899200"/>
+        <c:crossAx val="-2086123040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,9 +1253,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$28</c:f>
+              <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1162,16 +1336,34 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Sprint38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sprint39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sprint41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sprint42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sprint43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sprint44</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$28</c:f>
+              <c:f>工作表1!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -1252,6 +1444,15 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,9 +1550,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$28</c:f>
+              <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1432,16 +1633,34 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Sprint38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sprint39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sprint41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sprint42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sprint43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sprint44</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$28</c:f>
+              <c:f>工作表1!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -1523,275 +1742,14 @@
                 <c:pt idx="26">
                   <c:v>61.0</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>打开bug</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$2:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>Sprint12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sprint18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sprint19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sprint20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sprint21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sprint22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sprint23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sprint24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sprint25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sprint26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Sprint27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Sprint28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Sprint29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Sprint30</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Sprint31</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Sprint32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Sprint33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Sprint34</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Sprint35</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Sprint36</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Sprint37</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Sprint38</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$G$2:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:pt idx="27">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>27.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76.0</c:v>
+                <c:pt idx="29">
+                  <c:v>297.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,11 +1767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065863616"/>
-        <c:axId val="-2065860096"/>
+        <c:axId val="-2086894368"/>
+        <c:axId val="-2086890704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065863616"/>
+        <c:axId val="-2086894368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065860096"/>
+        <c:crossAx val="-2086890704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065860096"/>
+        <c:axId val="-2086890704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065863616"/>
+        <c:crossAx val="-2086894368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3472,11 +3430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3941,7 +3899,7 @@
         <v>786</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:G30" si="2">F19-E19</f>
+        <f t="shared" ref="G19:G29" si="2">F19-E19</f>
         <v>164</v>
       </c>
     </row>
@@ -4211,6 +4169,39 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4">
+        <v>297</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1569</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1646</v>
+      </c>
+      <c r="G31" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>Sprint44</t>
+  </si>
+  <si>
+    <t>2016年01月06日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,6 +730,9 @@
                 <c:pt idx="29">
                   <c:v>1646.0</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1768.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -857,6 +864,9 @@
                 <c:pt idx="29">
                   <c:v>80.0</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>172.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -872,11 +882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086123040"/>
-        <c:axId val="-2101406912"/>
+        <c:axId val="2108046480"/>
+        <c:axId val="2108049616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086123040"/>
+        <c:axId val="2108046480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101406912"/>
+        <c:crossAx val="2108049616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101406912"/>
+        <c:axId val="2108049616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +988,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086123040"/>
+        <c:crossAx val="2108046480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,6 +1464,9 @@
                 <c:pt idx="29">
                   <c:v>128.0</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>122.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1751,6 +1764,9 @@
                 <c:pt idx="29">
                   <c:v>297.0</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1767,11 +1783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086894368"/>
-        <c:axId val="-2086890704"/>
+        <c:axId val="-2108175072"/>
+        <c:axId val="-2108171584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086894368"/>
+        <c:axId val="-2108175072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086890704"/>
+        <c:crossAx val="-2108171584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086890704"/>
+        <c:axId val="-2108171584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086894368"/>
+        <c:crossAx val="-2108175072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,8 +3449,8 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4193,6 +4209,24 @@
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <v>122</v>
+      </c>
+      <c r="D32" s="4">
+        <v>34</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1603</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1768</v>
+      </c>
+      <c r="G32" s="4">
+        <v>172</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>2016年01月06日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,6 +741,9 @@
                 <c:pt idx="30">
                   <c:v>1768.0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>1863.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -867,6 +878,9 @@
                 <c:pt idx="30">
                   <c:v>172.0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>97.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -882,11 +896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108046480"/>
-        <c:axId val="2108049616"/>
+        <c:axId val="-2111855344"/>
+        <c:axId val="2141006064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108046480"/>
+        <c:axId val="-2111855344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108049616"/>
+        <c:crossAx val="2141006064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108049616"/>
+        <c:axId val="2141006064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108046480"/>
+        <c:crossAx val="-2111855344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,6 +1481,9 @@
                 <c:pt idx="30">
                   <c:v>122.0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1767,6 +1784,9 @@
                 <c:pt idx="30">
                   <c:v>34.0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>170.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1783,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108175072"/>
-        <c:axId val="-2108171584"/>
+        <c:axId val="2141381104"/>
+        <c:axId val="2141563920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108175072"/>
+        <c:axId val="2141381104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +1850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108171584"/>
+        <c:crossAx val="2141563920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108171584"/>
+        <c:axId val="2141563920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108175072"/>
+        <c:crossAx val="2141381104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3450,7 +3470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4228,14 +4248,35 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="4">
+        <v>95</v>
+      </c>
+      <c r="D33" s="4">
+        <v>170</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1773</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1863</v>
+      </c>
+      <c r="G33" s="4">
+        <v>97</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -744,6 +744,9 @@
                 <c:pt idx="31">
                   <c:v>1863.0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -881,6 +884,9 @@
                 <c:pt idx="31">
                   <c:v>97.0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -896,11 +902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2111855344"/>
-        <c:axId val="2141006064"/>
+        <c:axId val="2115987568"/>
+        <c:axId val="2119155184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111855344"/>
+        <c:axId val="2115987568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141006064"/>
+        <c:crossAx val="2119155184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -951,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141006064"/>
+        <c:axId val="2119155184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1008,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111855344"/>
+        <c:crossAx val="2115987568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,6 +1490,9 @@
                 <c:pt idx="31">
                   <c:v>95.0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>139.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1787,6 +1796,9 @@
                 <c:pt idx="31">
                   <c:v>170.0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>145.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1803,11 +1815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141381104"/>
-        <c:axId val="2141563920"/>
+        <c:axId val="2115643136"/>
+        <c:axId val="2115598160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141381104"/>
+        <c:axId val="2115643136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1862,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141563920"/>
+        <c:crossAx val="2115598160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +1870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141563920"/>
+        <c:axId val="2115598160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141381104"/>
+        <c:crossAx val="2115643136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3470,7 +3482,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4278,6 +4290,21 @@
       <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C34" s="4">
+        <v>139</v>
+      </c>
+      <c r="D34" s="4">
+        <v>145</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1910</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2002</v>
+      </c>
+      <c r="G34" s="4">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -282,6 +282,20 @@
   </si>
   <si>
     <t>2016年01月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint45</t>
+  </si>
+  <si>
+    <t>Sprint46</t>
+  </si>
+  <si>
+    <t>2016年01月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年02月03日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +553,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -638,6 +652,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Sprint44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sprint45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -746,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,6 +907,9 @@
                 <c:pt idx="32">
                   <c:v>92.0</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>100.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -902,11 +925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115987568"/>
-        <c:axId val="2119155184"/>
+        <c:axId val="-2122243824"/>
+        <c:axId val="-2122238000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115987568"/>
+        <c:axId val="-2122243824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119155184"/>
+        <c:crossAx val="-2122238000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119155184"/>
+        <c:axId val="-2122238000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115987568"/>
+        <c:crossAx val="-2122243824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1308,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1384,6 +1407,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Sprint44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sprint45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1492,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,7 +1620,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1690,6 +1719,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Sprint44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sprint45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1798,6 +1830,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115643136"/>
-        <c:axId val="2115598160"/>
+        <c:axId val="-2122105712"/>
+        <c:axId val="-2122102224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115643136"/>
+        <c:axId val="-2122105712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1897,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115598160"/>
+        <c:crossAx val="-2122102224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1870,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115598160"/>
+        <c:axId val="-2122102224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115643136"/>
+        <c:crossAx val="-2122105712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,11 +3513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4306,6 +4341,52 @@
         <v>92</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="4">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1933</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2033</v>
+      </c>
+      <c r="G35" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="4">
+        <v>55</v>
+      </c>
+      <c r="D36" s="4">
+        <v>53</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1986</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2088</v>
+      </c>
+      <c r="G36" s="4">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="540" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="5040" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -298,12 +298,26 @@
     <t>2016年02月03日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sprint47</t>
+  </si>
+  <si>
+    <t>2016年02月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint48</t>
+  </si>
+  <si>
+    <t>2016年03月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +378,12 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,14 +417,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -412,13 +434,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -463,9 +488,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>总bug数</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -551,9 +573,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$35</c:f>
+              <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -655,16 +677,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Sprint45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sprint47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sprint48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$35</c:f>
+              <c:f>工作表1!$F$2:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>72.0</c:v>
                 </c:pt>
@@ -766,6 +797,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2088.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2235.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,9 +812,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>打开bug数</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -802,12 +836,131 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$2:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>Sprint12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sprint23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sprint24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sprint25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sprint26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sprint27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sprint28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sprint29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sprint30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sprint31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sprint32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sprint33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sprint35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sprint36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sprint37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sprint38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sprint39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sprint41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sprint42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sprint43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sprint44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Sprint45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sprint47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sprint48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$35</c:f>
+              <c:f>工作表1!$G$2:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>27.0</c:v>
                 </c:pt>
@@ -909,6 +1062,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122243824"/>
-        <c:axId val="-2122238000"/>
+        <c:axId val="-2035925360"/>
+        <c:axId val="-2037755824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122243824"/>
+        <c:axId val="-2035925360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122238000"/>
+        <c:crossAx val="-2037755824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122238000"/>
+        <c:axId val="-2037755824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122243824"/>
+        <c:crossAx val="-2035925360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,9 +1377,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>流入bug</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1306,9 +1462,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$35</c:f>
+              <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1410,16 +1566,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Sprint45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sprint47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sprint48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$35</c:f>
+              <c:f>工作表1!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -1521,6 +1686,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,9 +1701,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>流出bug</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1618,9 +1786,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$35</c:f>
+              <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1722,16 +1890,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Sprint45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Sprint47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Sprint48</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$35</c:f>
+              <c:f>工作表1!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -1833,6 +2010,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,11 +2033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122105712"/>
-        <c:axId val="-2122102224"/>
+        <c:axId val="2103190896"/>
+        <c:axId val="-2032124256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122105712"/>
+        <c:axId val="2103190896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +2080,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122102224"/>
+        <c:crossAx val="-2032124256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122102224"/>
+        <c:axId val="-2032124256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +2139,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122105712"/>
+        <c:crossAx val="2103190896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,11 +3696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4387,6 +4570,37 @@
         <v>102</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4">
+        <v>147</v>
+      </c>
+      <c r="D37" s="4">
+        <v>120</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2106</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2235</v>
+      </c>
+      <c r="G37" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -310,6 +310,16 @@
   </si>
   <si>
     <t>2016年03月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint49</t>
+  </si>
+  <si>
+    <t>Sprint50</t>
+  </si>
+  <si>
+    <t>2016年03月10日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +585,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -686,6 +696,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Sprint48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sprint49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sprint50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,6 +819,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2235.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2327.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2464.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +862,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -951,6 +973,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Sprint48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sprint49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sprint50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1067,7 +1095,13 @@
                   <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>113.0</c:v>
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>118.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,11 +1118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2035925360"/>
-        <c:axId val="-2037755824"/>
+        <c:axId val="-2106481008"/>
+        <c:axId val="-2104652064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2035925360"/>
+        <c:axId val="-2106481008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037755824"/>
+        <c:crossAx val="-2104652064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1139,7 +1173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037755824"/>
+        <c:axId val="-2104652064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1224,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035925360"/>
+        <c:crossAx val="-2106481008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,7 +1498,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1575,6 +1609,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Sprint48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sprint49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sprint50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1692,6 +1732,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,7 +1834,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1899,6 +1945,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Sprint48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sprint49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sprint50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2016,6 +2068,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,11 +2091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103190896"/>
-        <c:axId val="-2032124256"/>
+        <c:axId val="-2106431680"/>
+        <c:axId val="-2106428256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103190896"/>
+        <c:axId val="-2106431680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032124256"/>
+        <c:crossAx val="-2106428256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032124256"/>
+        <c:axId val="-2106428256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103190896"/>
+        <c:crossAx val="-2106431680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3696,11 +3754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4590,7 +4648,7 @@
         <v>2235</v>
       </c>
       <c r="G37" s="4">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4599,6 +4657,49 @@
       </c>
       <c r="B38" s="5" t="s">
         <v>80</v>
+      </c>
+      <c r="C38" s="4">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4">
+        <v>89</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2193</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2327</v>
+      </c>
+      <c r="G38" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4">
+        <v>137</v>
+      </c>
+      <c r="D39" s="4">
+        <v>153</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2346</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2464</v>
+      </c>
+      <c r="G39" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="40380" yWindow="500" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -320,6 +320,23 @@
   </si>
   <si>
     <t>2016年03月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年03月16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint51</t>
+  </si>
+  <si>
+    <t>Sprint52</t>
+  </si>
+  <si>
+    <t>Sprint53</t>
+  </si>
+  <si>
+    <t>2016年03月23日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +602,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -702,6 +719,15 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>Sprint50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sprint51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sprint52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sprint53</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -825,6 +851,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2464.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2605.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,7 +891,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -979,6 +1008,15 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>Sprint50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sprint51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sprint52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sprint53</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1102,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,11 +1159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106481008"/>
-        <c:axId val="-2104652064"/>
+        <c:axId val="-2011249872"/>
+        <c:axId val="2131851008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106481008"/>
+        <c:axId val="-2011249872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1206,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104652064"/>
+        <c:crossAx val="2131851008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104652064"/>
+        <c:axId val="2131851008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106481008"/>
+        <c:crossAx val="-2011249872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1498,7 +1539,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1615,6 +1656,15 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>Sprint50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sprint51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sprint52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sprint53</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,6 +1788,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>141.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,7 +1887,7 @@
             <c:strRef>
               <c:f>工作表1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>Sprint12</c:v>
                 </c:pt>
@@ -1951,6 +2004,15 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>Sprint50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sprint51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sprint52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Sprint53</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2074,6 +2136,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>161.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,11 +2156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106431680"/>
-        <c:axId val="-2106428256"/>
+        <c:axId val="-2100422560"/>
+        <c:axId val="-2010321264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106431680"/>
+        <c:axId val="-2100422560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106428256"/>
+        <c:crossAx val="-2010321264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106428256"/>
+        <c:axId val="-2010321264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2262,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106431680"/>
+        <c:crossAx val="-2100422560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,11 +3819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4701,6 +4766,42 @@
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="4">
+        <v>141</v>
+      </c>
+      <c r="D40" s="4">
+        <v>161</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2507</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2605</v>
+      </c>
+      <c r="G40" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目管理/质量管理/妲己缺陷统计.xlsx
+++ b/项目管理/质量管理/妲己缺陷统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40380" yWindow="500" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="760" windowWidth="35680" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>2016年03月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年03月30日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,6 +859,9 @@
                 <c:pt idx="38">
                   <c:v>2605.0</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>2702.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1144,6 +1151,9 @@
                 <c:pt idx="38">
                   <c:v>100.0</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1159,11 +1169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2011249872"/>
-        <c:axId val="2131851008"/>
+        <c:axId val="2113532768"/>
+        <c:axId val="2113538816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2011249872"/>
+        <c:axId val="2113532768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131851008"/>
+        <c:crossAx val="2113538816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,7 +1224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131851008"/>
+        <c:axId val="2113538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011249872"/>
+        <c:crossAx val="2113532768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,6 +1802,9 @@
                 <c:pt idx="38">
                   <c:v>141.0</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2140,6 +2153,9 @@
                 <c:pt idx="38">
                   <c:v>161.0</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2156,11 +2172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100422560"/>
-        <c:axId val="-2010321264"/>
+        <c:axId val="2113685312"/>
+        <c:axId val="2113694752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100422560"/>
+        <c:axId val="2113685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2219,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2010321264"/>
+        <c:crossAx val="2113694752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2010321264"/>
+        <c:axId val="2113694752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100422560"/>
+        <c:crossAx val="2113685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4792,10 +4808,28 @@
       <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C41" s="4">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4">
+        <v>135</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2640</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2702</v>
+      </c>
+      <c r="G41" s="4">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
